--- a/Abaqus Verification.xlsx
+++ b/Abaqus Verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\REHTi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1CFEA4-E0E5-4F5A-9BCE-E22504773986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE4CBEF-8CFD-4F5E-A682-E1C5E4430AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E79648AF-7C15-4CC4-B49D-C7D5BE6D003A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79648AF-7C15-4CC4-B49D-C7D5BE6D003A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Christopher Shieh</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01215E2-00E2-428B-9668-BD780221466B}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +691,7 @@
       </c>
       <c r="B22" s="6">
         <f>(B20*B13^3)/(48*B12*B18)</f>
-        <v>1.116830185451612E-4</v>
+        <v>1.116830185451612E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,8 +699,17 @@
         <v>15</v>
       </c>
       <c r="B23" s="5">
-        <f>((B13*B20/4)*B14)/B18</f>
-        <v>591026.53414099303</v>
+        <f>(44.5*B14)/B18</f>
+        <v>5260136.1538548376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <f>(B13*B20/4)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -709,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B797657D-7522-4B0E-92AF-FFFEB67ECC44}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
